--- a/outputs/orders_history.xlsx
+++ b/outputs/orders_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Заказчик</t>
   </si>
@@ -49,6 +49,15 @@
     <t>Идея Трэвел</t>
   </si>
   <si>
+    <t>FROMTE OU</t>
+  </si>
+  <si>
+    <t>АО ПЕРЕКРЕСТОК ВКУСОВ</t>
+  </si>
+  <si>
+    <t>EXPRESS LINE</t>
+  </si>
+  <si>
     <t>Стандарт</t>
   </si>
   <si>
@@ -61,12 +70,24 @@
     <t>51+1 ЮТОНГ Автобус</t>
   </si>
   <si>
+    <t>59+0/1 Европа Автобус</t>
+  </si>
+  <si>
+    <t>53+1 ЮТОНГ Автобус</t>
+  </si>
+  <si>
     <t>Not Information</t>
   </si>
   <si>
     <t>Yutong (51+1)</t>
   </si>
   <si>
+    <t>MAN LION'S COACH(59)</t>
+  </si>
+  <si>
+    <t>Yutong (53+1)</t>
+  </si>
+  <si>
     <t>2025-05-04 16:11:14</t>
   </si>
   <si>
@@ -77,6 +98,15 @@
   </si>
   <si>
     <t>2025-05-04 16:11:55</t>
+  </si>
+  <si>
+    <t>2025-05-07 11:08:07</t>
+  </si>
+  <si>
+    <t>2025-05-07 11:08:28</t>
+  </si>
+  <si>
+    <t>2025-05-07 11:13:40</t>
   </si>
 </sst>
 </file>
@@ -434,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,19 +507,19 @@
         <v>2500</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,19 +533,19 @@
         <v>1400</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,19 +559,19 @@
         <v>1400</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -555,19 +585,97 @@
         <v>1400</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1700</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1100</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
